--- a/data/trans_orig/MCS12_SP_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>193189</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>172768</v>
+        <v>171026</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>216521</v>
+        <v>215701</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4077641533343527</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3646622066216753</v>
+        <v>0.360984557341076</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.457011224160809</v>
+        <v>0.4552795399902565</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>152</v>
@@ -765,19 +765,19 @@
         <v>155626</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137883</v>
+        <v>138572</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>173353</v>
+        <v>173612</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5074541939203496</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4495998325552308</v>
+        <v>0.451844932722576</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5652572870041981</v>
+        <v>0.5661030287296223</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>331</v>
@@ -786,19 +786,19 @@
         <v>348815</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>319513</v>
+        <v>320318</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>376739</v>
+        <v>379235</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4469373389636811</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4093924726198302</v>
+        <v>0.4104237657696126</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4827162815252399</v>
+        <v>0.4859135336746313</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>280587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>257255</v>
+        <v>258075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>301008</v>
+        <v>302750</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5922358466656473</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.542988775839191</v>
+        <v>0.5447204600097435</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6353377933783246</v>
+        <v>0.639015442658924</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>146</v>
@@ -836,19 +836,19 @@
         <v>151054</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>133327</v>
+        <v>133068</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>168797</v>
+        <v>168108</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4925458060796503</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4347427129958016</v>
+        <v>0.4338969712703777</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5504001674447692</v>
+        <v>0.5481550672774242</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>422</v>
@@ -857,19 +857,19 @@
         <v>431642</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>403718</v>
+        <v>401222</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>460944</v>
+        <v>460139</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.553062661036319</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5172837184747602</v>
+        <v>0.5140864663253687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5906075273801698</v>
+        <v>0.5895762342303874</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>142891</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>123808</v>
+        <v>124340</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162782</v>
+        <v>163125</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3894182957289476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3374122400199355</v>
+        <v>0.3388619397852912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.443628293480946</v>
+        <v>0.4445635312057172</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>199</v>
@@ -982,19 +982,19 @@
         <v>204034</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>184861</v>
+        <v>186793</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>223370</v>
+        <v>223008</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5486776366452655</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4971179013903466</v>
+        <v>0.5023130006780097</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6006751791639701</v>
+        <v>0.5997015398188702</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>339</v>
@@ -1003,19 +1003,19 @@
         <v>346925</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>319471</v>
+        <v>319380</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>373980</v>
+        <v>376055</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4695794125709777</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4324198939481631</v>
+        <v>0.4322967660461192</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5062004017012381</v>
+        <v>0.5090081249467849</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>224043</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>204152</v>
+        <v>203809</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>243126</v>
+        <v>242594</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6105817042710524</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5563717065190541</v>
+        <v>0.5554364687942829</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6625877599800647</v>
+        <v>0.6611380602147088</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>164</v>
@@ -1053,19 +1053,19 @@
         <v>167831</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>148495</v>
+        <v>148857</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>187004</v>
+        <v>185072</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4513223633547346</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3993248208360299</v>
+        <v>0.4002984601811296</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5028820986096535</v>
+        <v>0.4976869993219903</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>374</v>
@@ -1074,19 +1074,19 @@
         <v>391874</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>364819</v>
+        <v>362744</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>419328</v>
+        <v>419419</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5304205874290222</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4937995982987618</v>
+        <v>0.4909918750532151</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.567580106051837</v>
+        <v>0.5677032339538808</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>243071</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>220176</v>
+        <v>218956</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>266370</v>
+        <v>266743</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4481483777058314</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4059373434766422</v>
+        <v>0.4036890095021768</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.491105224353289</v>
+        <v>0.4917919389068626</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -1199,19 +1199,19 @@
         <v>96280</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>84276</v>
+        <v>83650</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107769</v>
+        <v>108060</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5738397010536218</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5022957388298881</v>
+        <v>0.4985629971713916</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6423149286034778</v>
+        <v>0.6440519918326538</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>334</v>
@@ -1220,19 +1220,19 @@
         <v>339351</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>312223</v>
+        <v>313550</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>367007</v>
+        <v>365912</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4778436622835701</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4396450141440965</v>
+        <v>0.4415132607195923</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5167872732162967</v>
+        <v>0.5152455709406145</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>299318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>276019</v>
+        <v>275646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>322213</v>
+        <v>323433</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5518516222941686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.508894775646711</v>
+        <v>0.5082080610931374</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5940626565233578</v>
+        <v>0.596310990497823</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>71</v>
@@ -1270,19 +1270,19 @@
         <v>71502</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>60013</v>
+        <v>59722</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>83506</v>
+        <v>84132</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4261602989463782</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3576850713965222</v>
+        <v>0.355948008167347</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.497704261170112</v>
+        <v>0.5014370028286088</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>362</v>
@@ -1291,19 +1291,19 @@
         <v>370820</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>343164</v>
+        <v>344259</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>397948</v>
+        <v>396621</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5221563377164299</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4832127267837034</v>
+        <v>0.4847544290593855</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5603549858559035</v>
+        <v>0.5584867392804077</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>597429</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>562766</v>
+        <v>562730</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>633097</v>
+        <v>631766</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4824459968852634</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4544540681626275</v>
+        <v>0.4544252820160478</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5112488367789625</v>
+        <v>0.5101741034285862</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>371</v>
@@ -1416,19 +1416,19 @@
         <v>381896</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>353023</v>
+        <v>355738</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>406281</v>
+        <v>409509</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5346548297553079</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4942327750107883</v>
+        <v>0.4980332114084746</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5687942854013489</v>
+        <v>0.5733126622109919</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>961</v>
@@ -1437,19 +1437,19 @@
         <v>979326</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>935849</v>
+        <v>934467</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1028438</v>
+        <v>1021673</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5015444433673953</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.479278409674535</v>
+        <v>0.4785708946344574</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5266966124600057</v>
+        <v>0.5232317955474418</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>640905</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>605237</v>
+        <v>606568</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>675568</v>
+        <v>675604</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5175540031147366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4887511632210375</v>
+        <v>0.4898258965714138</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5455459318373724</v>
+        <v>0.5455747179839522</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>323</v>
@@ -1487,19 +1487,19 @@
         <v>332389</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>308004</v>
+        <v>304776</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>361262</v>
+        <v>358547</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4653451702446921</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4312057145986511</v>
+        <v>0.4266873377890082</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5057672249892118</v>
+        <v>0.5019667885915254</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>957</v>
@@ -1508,19 +1508,19 @@
         <v>973294</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>924182</v>
+        <v>930947</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1016771</v>
+        <v>1018153</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4984555566326046</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4733033875399946</v>
+        <v>0.4767682044525584</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5207215903254651</v>
+        <v>0.5214291053655427</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>150839</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132348</v>
+        <v>133725</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>171612</v>
+        <v>169977</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4302860533321889</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3775398852885495</v>
+        <v>0.3814656842875266</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4895440903503007</v>
+        <v>0.4848794263102582</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>316</v>
@@ -1633,19 +1633,19 @@
         <v>332535</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>308257</v>
+        <v>308502</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>353698</v>
+        <v>356396</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5846749930919123</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5419888068381818</v>
+        <v>0.5424197603806121</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6218851390057704</v>
+        <v>0.6266288849769426</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>460</v>
@@ -1654,19 +1654,19 @@
         <v>483374</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>453706</v>
+        <v>450768</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>515892</v>
+        <v>512539</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5258025490608456</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4935304441600868</v>
+        <v>0.4903341735846481</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5611743714251369</v>
+        <v>0.5575277958548028</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>199716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>178943</v>
+        <v>180578</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>218207</v>
+        <v>216830</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5697139466678111</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5104559096496993</v>
+        <v>0.5151205736897421</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6224601147114509</v>
+        <v>0.6185343157124735</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>223</v>
@@ -1704,19 +1704,19 @@
         <v>236217</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>215054</v>
+        <v>212356</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>260495</v>
+        <v>260250</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4153250069080877</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3781148609942299</v>
+        <v>0.3733711150230575</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4580111931618184</v>
+        <v>0.4575802396193879</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>419</v>
@@ -1725,19 +1725,19 @@
         <v>435933</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>403415</v>
+        <v>406768</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>465601</v>
+        <v>468539</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4741974509391544</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4388256285748632</v>
+        <v>0.4424722041451971</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5064695558399134</v>
+        <v>0.5096658264153519</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>86670</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>73037</v>
+        <v>73085</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>104196</v>
+        <v>102542</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2906429306537413</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2449267102710591</v>
+        <v>0.2450849328546591</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3494150277054884</v>
+        <v>0.3438681580354522</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>650</v>
@@ -1850,19 +1850,19 @@
         <v>659454</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>628140</v>
+        <v>622798</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>699248</v>
+        <v>694181</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5280867925707894</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5030111437720711</v>
+        <v>0.4987329677864373</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5599542551684232</v>
+        <v>0.5558966340190128</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>736</v>
@@ -1871,19 +1871,19 @@
         <v>746123</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>708737</v>
+        <v>708516</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>791239</v>
+        <v>786265</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4823158142019335</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4581479246351911</v>
+        <v>0.4580054379781057</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5114799020899572</v>
+        <v>0.508264623647092</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>211531</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194005</v>
+        <v>195659</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>225164</v>
+        <v>225116</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7093570693462586</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6505849722945114</v>
+        <v>0.6561318419645475</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7550732897289409</v>
+        <v>0.7549150671453407</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>588</v>
@@ -1921,19 +1921,19 @@
         <v>589306</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>549512</v>
+        <v>554579</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>620620</v>
+        <v>625962</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4719132074292106</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4400457448315762</v>
+        <v>0.4441033659809872</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4969888562279288</v>
+        <v>0.5012670322135624</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>808</v>
@@ -1942,19 +1942,19 @@
         <v>800837</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>755721</v>
+        <v>760695</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>838223</v>
+        <v>838444</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5176841857980664</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4885200979100427</v>
+        <v>0.4917353763529079</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5418520753648088</v>
+        <v>0.5419945620218943</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>1414089</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1359081</v>
+        <v>1357250</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1474111</v>
+        <v>1472547</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4324180438222078</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4155970198056376</v>
+        <v>0.4150370551219172</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4507722706687562</v>
+        <v>0.4502939988441528</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1781</v>
@@ -2067,19 +2067,19 @@
         <v>1829825</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1776694</v>
+        <v>1771002</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1893176</v>
+        <v>1886878</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.541668887642215</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5259409925415023</v>
+        <v>0.524256094245763</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5604221535308223</v>
+        <v>0.5585578212024515</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3161</v>
@@ -2088,19 +2088,19 @@
         <v>3243914</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3162402</v>
+        <v>3156395</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3326492</v>
+        <v>3322868</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4879302983135065</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4756697522738233</v>
+        <v>0.4747661656935281</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.500351189183239</v>
+        <v>0.4998060733260434</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1856101</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1796079</v>
+        <v>1797643</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1911109</v>
+        <v>1912940</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5675819561777922</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5492277293312438</v>
+        <v>0.5497060011558474</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5844029801943625</v>
+        <v>0.5849629448780829</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1515</v>
@@ -2138,19 +2138,19 @@
         <v>1548299</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1484948</v>
+        <v>1491246</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1601430</v>
+        <v>1607122</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.458331112357785</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4395778464691777</v>
+        <v>0.4414421787975484</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4740590074584978</v>
+        <v>0.475743905754237</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3342</v>
@@ -2159,19 +2159,19 @@
         <v>3404400</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3321822</v>
+        <v>3325446</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3485912</v>
+        <v>3491919</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5120697016864935</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4996488108167611</v>
+        <v>0.5001939266739567</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5243302477261768</v>
+        <v>0.5252338343064719</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>221866</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>199639</v>
+        <v>198398</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>243866</v>
+        <v>244787</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5074564899129894</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.456619443321067</v>
+        <v>0.4537819804900273</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5577772245644887</v>
+        <v>0.5598822098719751</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>161</v>
@@ -2526,19 +2526,19 @@
         <v>177135</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>157308</v>
+        <v>158133</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>195189</v>
+        <v>195394</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.563309881074009</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.500257677580174</v>
+        <v>0.502880819231705</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6207250643885494</v>
+        <v>0.6213768332473186</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>364</v>
@@ -2547,19 +2547,19 @@
         <v>399001</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>369685</v>
+        <v>366856</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>426124</v>
+        <v>425615</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5308223984989605</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4918211067114571</v>
+        <v>0.4880576601057744</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5669064750933023</v>
+        <v>0.5662301083888523</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>215345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>193345</v>
+        <v>192424</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>237572</v>
+        <v>238813</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4925435100870106</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4422227754355114</v>
+        <v>0.4401177901280241</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5433805566789333</v>
+        <v>0.5462180195099725</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>122</v>
@@ -2597,19 +2597,19 @@
         <v>137319</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>119265</v>
+        <v>119060</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>157146</v>
+        <v>156321</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.436690118925991</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3792749356114505</v>
+        <v>0.3786231667526813</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4997423224198259</v>
+        <v>0.4971191807682949</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>323</v>
@@ -2618,19 +2618,19 @@
         <v>352664</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>325541</v>
+        <v>326050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>381980</v>
+        <v>384809</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4691776015010395</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4330935249066978</v>
+        <v>0.4337698916111475</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5081788932885429</v>
+        <v>0.5119423398942256</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>202181</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>179667</v>
+        <v>178099</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>223353</v>
+        <v>223551</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4827652831500566</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4290063247544255</v>
+        <v>0.4252622516154158</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5333205714164106</v>
+        <v>0.5337934329202975</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>197</v>
@@ -2743,19 +2743,19 @@
         <v>217569</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>198664</v>
+        <v>198374</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>238846</v>
+        <v>235196</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.643674127579749</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5877437629201416</v>
+        <v>0.5868870222164474</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7066216090962073</v>
+        <v>0.6958231074852328</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>377</v>
@@ -2764,19 +2764,19 @@
         <v>419750</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>385588</v>
+        <v>389312</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>445208</v>
+        <v>447525</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.554631557322937</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5094920850251922</v>
+        <v>0.5144136056380827</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5882702983864035</v>
+        <v>0.5913326596627909</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>216616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>195444</v>
+        <v>195246</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>239130</v>
+        <v>240698</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5172347168499434</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4666794285835894</v>
+        <v>0.4662065670797026</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5709936752455747</v>
+        <v>0.5747377483845842</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>108</v>
@@ -2814,19 +2814,19 @@
         <v>120442</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>99165</v>
+        <v>102815</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>139347</v>
+        <v>139637</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3563258724202511</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2933783909037926</v>
+        <v>0.3041768925147671</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.412256237079858</v>
+        <v>0.4131129777835528</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>303</v>
@@ -2835,19 +2835,19 @@
         <v>337058</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>311600</v>
+        <v>309283</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>371220</v>
+        <v>367496</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4453684426770629</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4117297016135965</v>
+        <v>0.408667340337209</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4905079149748083</v>
+        <v>0.4855863943619168</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>333969</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>308651</v>
+        <v>308097</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>359439</v>
+        <v>359628</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5306016303163855</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4903774353506781</v>
+        <v>0.4894972739849648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.571068562450204</v>
+        <v>0.5713690751291286</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>160</v>
@@ -2960,19 +2960,19 @@
         <v>171130</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>153590</v>
+        <v>155662</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>184851</v>
+        <v>186060</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6578676160791593</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5904376533337515</v>
+        <v>0.5984030465868502</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7106136847512674</v>
+        <v>0.7152621959646545</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>474</v>
@@ -2981,19 +2981,19 @@
         <v>505099</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>474694</v>
+        <v>476953</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>536456</v>
+        <v>534618</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5678180232558542</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5336373150080936</v>
+        <v>0.5361766770202477</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6030686261321641</v>
+        <v>0.6010024601107276</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>295446</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>269976</v>
+        <v>269787</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>320764</v>
+        <v>321318</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4693983696836145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4289314375497961</v>
+        <v>0.428630924870873</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5096225646493221</v>
+        <v>0.5105027260150353</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>84</v>
@@ -3031,19 +3031,19 @@
         <v>88999</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75278</v>
+        <v>74069</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>106539</v>
+        <v>104467</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3421323839208406</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2893863152487326</v>
+        <v>0.2847378040353455</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4095623466662485</v>
+        <v>0.4015969534131498</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>361</v>
@@ -3052,19 +3052,19 @@
         <v>384445</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>353088</v>
+        <v>354926</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>414850</v>
+        <v>412591</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4321819767441459</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3969313738678359</v>
+        <v>0.3989975398892724</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4663626849919064</v>
+        <v>0.4638233229797523</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>595054</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>557458</v>
+        <v>561134</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>630463</v>
+        <v>630172</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5134160287015374</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4809783012366409</v>
+        <v>0.4841500112162124</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5439672453534931</v>
+        <v>0.5437158139717899</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>432</v>
@@ -3177,19 +3177,19 @@
         <v>468330</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>441206</v>
+        <v>437702</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>496248</v>
+        <v>496549</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.610873240571959</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5754933338636083</v>
+        <v>0.5709223104491009</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6472875513406806</v>
+        <v>0.6476804990977573</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>990</v>
@@ -3198,19 +3198,19 @@
         <v>1063385</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1020097</v>
+        <v>1021074</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1107892</v>
+        <v>1105138</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5522162515558401</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5297370685355843</v>
+        <v>0.5302442417180173</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5753291414565401</v>
+        <v>0.5738989574561698</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>563955</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>528546</v>
+        <v>528837</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>601551</v>
+        <v>597875</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4865839712984627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4560327546465069</v>
+        <v>0.4562841860282102</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5190216987633591</v>
+        <v>0.5158499887837876</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>279</v>
@@ -3248,19 +3248,19 @@
         <v>298327</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>270409</v>
+        <v>270108</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>325451</v>
+        <v>328955</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.389126759428041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3527124486593194</v>
+        <v>0.3523195009022428</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4245066661363919</v>
+        <v>0.429077689550899</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>804</v>
@@ -3269,19 +3269,19 @@
         <v>862282</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>817775</v>
+        <v>820529</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>905570</v>
+        <v>904593</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4477837484441599</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4246708585434599</v>
+        <v>0.4261010425438301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4702629314644159</v>
+        <v>0.4697557582819824</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>237273</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>212364</v>
+        <v>214355</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>262034</v>
+        <v>260355</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4646974687558655</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4159148256349628</v>
+        <v>0.4198130080446031</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5131931138960779</v>
+        <v>0.5099046316805352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>457</v>
@@ -3394,19 +3394,19 @@
         <v>493330</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>466518</v>
+        <v>467161</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>521479</v>
+        <v>523240</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6478211947010041</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6126132345102508</v>
+        <v>0.6134564230174443</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6847857645986092</v>
+        <v>0.6870977944153102</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>684</v>
@@ -3415,19 +3415,19 @@
         <v>730603</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>695346</v>
+        <v>691433</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>765502</v>
+        <v>763986</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5743199198681004</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5466052551074353</v>
+        <v>0.5435287154470886</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6017543174217498</v>
+        <v>0.6005619602010182</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>273323</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>248562</v>
+        <v>250241</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>298232</v>
+        <v>296241</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5353025312441345</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.486806886103922</v>
+        <v>0.4900953683194648</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.584085174365037</v>
+        <v>0.5801869919553969</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>246</v>
@@ -3465,19 +3465,19 @@
         <v>268192</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>240043</v>
+        <v>238282</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>295004</v>
+        <v>294361</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.352178805298996</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.315214235401391</v>
+        <v>0.31290220558469</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3873867654897499</v>
+        <v>0.386543576982556</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>506</v>
@@ -3486,19 +3486,19 @@
         <v>541515</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>506616</v>
+        <v>508132</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>576772</v>
+        <v>580685</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4256800801318996</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3982456825782505</v>
+        <v>0.3994380397989819</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4533947448925647</v>
+        <v>0.4564712845529114</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>85887</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70692</v>
+        <v>71369</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>100802</v>
+        <v>102553</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.321814767488066</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2648823293516342</v>
+        <v>0.2674184186785904</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3777009594968672</v>
+        <v>0.3842638393176559</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>627</v>
@@ -3611,19 +3611,19 @@
         <v>669740</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>635282</v>
+        <v>636336</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>702156</v>
+        <v>701792</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.603722390879732</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5726610264882788</v>
+        <v>0.5736108677668169</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6329429321329819</v>
+        <v>0.6326147390167667</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>712</v>
@@ -3632,19 +3632,19 @@
         <v>755627</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>718639</v>
+        <v>718004</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>795569</v>
+        <v>790905</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5490542935462439</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.522178300135864</v>
+        <v>0.5217166699246936</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5780771383905564</v>
+        <v>0.5746884569392762</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>180995</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166080</v>
+        <v>164329</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>196190</v>
+        <v>195513</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6781852325119341</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6222990405031327</v>
+        <v>0.6157361606823435</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7351176706483654</v>
+        <v>0.7325815813214095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>417</v>
@@ -3682,19 +3682,19 @@
         <v>439611</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>407195</v>
+        <v>407559</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>474069</v>
+        <v>473015</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.396277609120268</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3670570678670175</v>
+        <v>0.3673852609832333</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4273389735117212</v>
+        <v>0.426389132233183</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>597</v>
@@ -3703,19 +3703,19 @@
         <v>620606</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>580664</v>
+        <v>585328</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>657594</v>
+        <v>658229</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4509457064537561</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4219228616094436</v>
+        <v>0.4253115430607238</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4778216998641361</v>
+        <v>0.4782833300753062</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1676228</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1611006</v>
+        <v>1617224</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1733419</v>
+        <v>1731416</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4898515350506095</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4707914193425881</v>
+        <v>0.4726086759671683</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5065646947395555</v>
+        <v>0.5059794199168421</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2034</v>
@@ -3828,19 +3828,19 @@
         <v>2197235</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2136794</v>
+        <v>2140716</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2253185</v>
+        <v>2258023</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6189177598344912</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6018926356936946</v>
+        <v>0.6029972801538943</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6346777798363049</v>
+        <v>0.6360405241810858</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3601</v>
@@ -3849,19 +3849,19 @@
         <v>3873463</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3791770</v>
+        <v>3786246</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3954282</v>
+        <v>3959016</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5555714074401896</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5438541245316157</v>
+        <v>0.5430617835632775</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5671631808459736</v>
+        <v>0.5678421935075771</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1745682</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1688491</v>
+        <v>1690494</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1810904</v>
+        <v>1804686</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5101484649493905</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4934353052604445</v>
+        <v>0.4940205800831579</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5292085806574119</v>
+        <v>0.5273913240328317</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1256</v>
@@ -3899,19 +3899,19 @@
         <v>1352890</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1296940</v>
+        <v>1292102</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1413331</v>
+        <v>1409409</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3810822401655088</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.365322220163695</v>
+        <v>0.3639594758189141</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3981073643063054</v>
+        <v>0.3970027198461059</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2894</v>
@@ -3920,19 +3920,19 @@
         <v>3098572</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3017753</v>
+        <v>3013019</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3180265</v>
+        <v>3185789</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4444285925598104</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4328368191540264</v>
+        <v>0.432157806492423</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4561458754683841</v>
+        <v>0.4569382164367224</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>204808</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>184807</v>
+        <v>183370</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>226860</v>
+        <v>225144</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4773061352490204</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4306933280529064</v>
+        <v>0.4273444238885727</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5286979262239185</v>
+        <v>0.524698229869681</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>163</v>
@@ -4287,19 +4287,19 @@
         <v>168562</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>148738</v>
+        <v>148626</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>187362</v>
+        <v>185631</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4856911192750928</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4285715684602326</v>
+        <v>0.428248277754164</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5398630111227455</v>
+        <v>0.5348746072175741</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>349</v>
@@ -4308,19 +4308,19 @@
         <v>373370</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>346414</v>
+        <v>344294</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>401027</v>
+        <v>401473</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4810554896351587</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4463254399551301</v>
+        <v>0.4435943932673511</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5166898946032282</v>
+        <v>0.5172646954880562</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>224284</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>202232</v>
+        <v>203948</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>244285</v>
+        <v>245722</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5226938647509796</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4713020737760815</v>
+        <v>0.475301770130319</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5693066719470936</v>
+        <v>0.5726555761114276</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>169</v>
@@ -4358,19 +4358,19 @@
         <v>178493</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>159693</v>
+        <v>161424</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>198317</v>
+        <v>198429</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5143088807249072</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4601369888772541</v>
+        <v>0.465125392782426</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5714284315397669</v>
+        <v>0.571751722245836</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>379</v>
@@ -4379,19 +4379,19 @@
         <v>402777</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>375120</v>
+        <v>374674</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>429733</v>
+        <v>431853</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5189445103648413</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4833101053967718</v>
+        <v>0.4827353045119437</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5536745600448699</v>
+        <v>0.5564056067326489</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>174630</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>154787</v>
+        <v>154716</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>195690</v>
+        <v>193027</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4629316757381299</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4103277724300343</v>
+        <v>0.410141264932814</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5187589589934309</v>
+        <v>0.5116990683890281</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>185</v>
@@ -4504,19 +4504,19 @@
         <v>197556</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>179804</v>
+        <v>178486</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>216994</v>
+        <v>217848</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5306740308838469</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4829897364095289</v>
+        <v>0.4794503252908344</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5828887620481404</v>
+        <v>0.5851837910202852</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>351</v>
@@ -4525,19 +4525,19 @@
         <v>372186</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>342045</v>
+        <v>344920</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>402789</v>
+        <v>400718</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4965789860755301</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4563638592576242</v>
+        <v>0.4601997274726294</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5374106368671481</v>
+        <v>0.5346466080493041</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>202597</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>181537</v>
+        <v>184200</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>222440</v>
+        <v>222511</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5370683242618701</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4812410410065692</v>
+        <v>0.4883009316109719</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5896722275699657</v>
+        <v>0.589858735067186</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>167</v>
@@ -4575,19 +4575,19 @@
         <v>174717</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>155279</v>
+        <v>154425</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>192469</v>
+        <v>193787</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.469325969116153</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4171112379518595</v>
+        <v>0.4148162089797148</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5170102635904712</v>
+        <v>0.5205496747091656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>355</v>
@@ -4596,19 +4596,19 @@
         <v>377314</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>346711</v>
+        <v>348782</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>407455</v>
+        <v>404580</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5034210139244699</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4625893631328519</v>
+        <v>0.465353391950696</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5436361407423757</v>
+        <v>0.5398002725273706</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>264611</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>242561</v>
+        <v>242239</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>288769</v>
+        <v>287873</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5070016213100326</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4647529429749221</v>
+        <v>0.4641364732498407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5532886730050951</v>
+        <v>0.5515722317790318</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -4721,19 +4721,19 @@
         <v>100763</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87399</v>
+        <v>86131</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113754</v>
+        <v>113057</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6065551008964079</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5261088200691221</v>
+        <v>0.5184747552919449</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6847570246627235</v>
+        <v>0.6805648960519733</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>345</v>
@@ -4742,19 +4742,19 @@
         <v>365373</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>337509</v>
+        <v>337140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>390352</v>
+        <v>389553</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5310382869714643</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4905399511897806</v>
+        <v>0.4900030169241457</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5673430116288489</v>
+        <v>0.5661806180450202</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>257303</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>233145</v>
+        <v>234041</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>279353</v>
+        <v>279675</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4929983786899674</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.446711326994905</v>
+        <v>0.4484277682209685</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5352470570250779</v>
+        <v>0.5358635267501594</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>63</v>
@@ -4792,19 +4792,19 @@
         <v>65360</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>52369</v>
+        <v>53066</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>78724</v>
+        <v>79992</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3934448991035921</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3152429753372766</v>
+        <v>0.3194351039480264</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4738911799308779</v>
+        <v>0.481525244708055</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>310</v>
@@ -4813,19 +4813,19 @@
         <v>322663</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>297684</v>
+        <v>298483</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>350527</v>
+        <v>350896</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4689617130285357</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4326569883711511</v>
+        <v>0.4338193819549795</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5094600488102192</v>
+        <v>0.5099969830758543</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>579379</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>547472</v>
+        <v>545157</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>613698</v>
+        <v>616481</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5039660798666584</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4762129096144103</v>
+        <v>0.4741992242114473</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5338186472084877</v>
+        <v>0.5362388081689113</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>442</v>
@@ -4938,19 +4938,19 @@
         <v>456751</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>429453</v>
+        <v>428512</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>485245</v>
+        <v>483392</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5530505328112649</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5199966198219375</v>
+        <v>0.5188579673339943</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5875523938856643</v>
+        <v>0.5853083074706137</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1000</v>
@@ -4959,19 +4959,19 @@
         <v>1036130</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>988586</v>
+        <v>993998</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1078223</v>
+        <v>1081367</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5244861369274072</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5004194662114673</v>
+        <v>0.5031594166243264</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5457938057707612</v>
+        <v>0.5473852863427699</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>570259</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>535940</v>
+        <v>533157</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>602166</v>
+        <v>604481</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4960339201333415</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4661813527915123</v>
+        <v>0.4637611918310887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5237870903855898</v>
+        <v>0.5258007757885529</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>356</v>
@@ -5009,19 +5009,19 @@
         <v>369125</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>340631</v>
+        <v>342484</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>396423</v>
+        <v>397364</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4469494671887351</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4124476061143359</v>
+        <v>0.4146916925293865</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4800033801780627</v>
+        <v>0.4811420326660062</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>901</v>
@@ -5030,19 +5030,19 @@
         <v>939384</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>897291</v>
+        <v>894147</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>986928</v>
+        <v>981516</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4755138630725928</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4542061942292389</v>
+        <v>0.4526147136572301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4995805337885327</v>
+        <v>0.4968405833756736</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>313849</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>288507</v>
+        <v>289265</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>339256</v>
+        <v>340867</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5056322217195693</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4648041760821409</v>
+        <v>0.4660251779170724</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5465654019515879</v>
+        <v>0.549159585028575</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>443</v>
@@ -5155,19 +5155,19 @@
         <v>465125</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>436805</v>
+        <v>437278</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>490744</v>
+        <v>492286</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6300418279031054</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5916807518328446</v>
+        <v>0.5923216960709533</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.664744577983192</v>
+        <v>0.6668342725318886</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>748</v>
@@ -5176,19 +5176,19 @@
         <v>778974</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>741329</v>
+        <v>736506</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>817260</v>
+        <v>816783</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5732172401013239</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5455156815241379</v>
+        <v>0.5419666100848005</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6013907224097104</v>
+        <v>0.6010398068855424</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>306857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>281450</v>
+        <v>279839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>332199</v>
+        <v>331441</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4943677782804307</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4534345980484121</v>
+        <v>0.4508404149714249</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.535195823917859</v>
+        <v>0.5339748220829275</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>256</v>
@@ -5226,19 +5226,19 @@
         <v>273119</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>247500</v>
+        <v>245958</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>301439</v>
+        <v>300966</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3699581720968946</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.335255422016808</v>
+        <v>0.3331657274681115</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4083192481671556</v>
+        <v>0.4076783039290471</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>548</v>
@@ -5247,19 +5247,19 @@
         <v>579976</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>541690</v>
+        <v>542167</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>617621</v>
+        <v>622444</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.426782759898676</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3986092775902892</v>
+        <v>0.3989601931144576</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4544843184758621</v>
+        <v>0.4580333899151993</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>93175</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>77812</v>
+        <v>77788</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109995</v>
+        <v>109851</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3244865779671712</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2709835871273865</v>
+        <v>0.2709025667686799</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3830633274204243</v>
+        <v>0.3825625578363352</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>502</v>
@@ -5372,19 +5372,19 @@
         <v>550446</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>515562</v>
+        <v>520326</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>586546</v>
+        <v>586314</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5087181443189634</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4764785313610777</v>
+        <v>0.4808818158929491</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5420820482598474</v>
+        <v>0.5418677240936872</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>591</v>
@@ -5393,19 +5393,19 @@
         <v>643620</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>604750</v>
+        <v>604212</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>681236</v>
+        <v>678048</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4700807214292498</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4416910870505095</v>
+        <v>0.4412978988911956</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4975540901603501</v>
+        <v>0.4952258951427382</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>193970</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>177150</v>
+        <v>177294</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>209333</v>
+        <v>209357</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6755134220328288</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6169366725795759</v>
+        <v>0.6174374421636648</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7290164128726134</v>
+        <v>0.7290974332313201</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>490</v>
@@ -5443,19 +5443,19 @@
         <v>531579</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>495479</v>
+        <v>495711</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>566463</v>
+        <v>561699</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4912818556810365</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4579179517401536</v>
+        <v>0.4581322759063128</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5235214686389223</v>
+        <v>0.5191181841070509</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>673</v>
@@ -5464,19 +5464,19 @@
         <v>725550</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>687934</v>
+        <v>691122</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>764420</v>
+        <v>764958</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5299192785707503</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.50244590983965</v>
+        <v>0.5047741048572616</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5583089129494905</v>
+        <v>0.558702101108804</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1630452</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1570136</v>
+        <v>1569464</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1692947</v>
+        <v>1688357</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.481567003754213</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4637521194720804</v>
+        <v>0.4635538087929071</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5000252576810797</v>
+        <v>0.4986696787548066</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1825</v>
@@ -5589,19 +5589,19 @@
         <v>1939201</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1876372</v>
+        <v>1875708</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1993292</v>
+        <v>1998826</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5491005796937808</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5313099933252082</v>
+        <v>0.5311219382300189</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5644168655889492</v>
+        <v>0.565983724442379</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3384</v>
@@ -5610,19 +5610,19 @@
         <v>3569653</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3491629</v>
+        <v>3477674</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3659230</v>
+        <v>3655301</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5160458720755113</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5047663489501565</v>
+        <v>0.50274892037607</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5289955460815045</v>
+        <v>0.5284274456618591</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>1755270</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1692775</v>
+        <v>1697365</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1815586</v>
+        <v>1816258</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5184329962457871</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4999747423189203</v>
+        <v>0.5013303212451934</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5362478805279196</v>
+        <v>0.5364461912070929</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1501</v>
@@ -5660,19 +5660,19 @@
         <v>1592395</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1538304</v>
+        <v>1532770</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1655224</v>
+        <v>1655888</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4508994203062192</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4355831344110508</v>
+        <v>0.434016275557621</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4686900066747917</v>
+        <v>0.4688780617699811</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3166</v>
@@ -5681,19 +5681,19 @@
         <v>3347665</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3258088</v>
+        <v>3262017</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3425689</v>
+        <v>3439644</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4839541279244886</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4710044539184955</v>
+        <v>0.4715725543381406</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4952336510498435</v>
+        <v>0.4972510796239298</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>228052</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>204754</v>
+        <v>204234</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>254368</v>
+        <v>255436</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4160275652054365</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.373526429152572</v>
+        <v>0.3725769172164874</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4640346152364117</v>
+        <v>0.4659831644114732</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>314</v>
@@ -6048,19 +6048,19 @@
         <v>220696</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>202440</v>
+        <v>201375</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>240026</v>
+        <v>239480</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4533406084989728</v>
+        <v>0.4533406084989727</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4158404572828998</v>
+        <v>0.4136537180125495</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.493047245084514</v>
+        <v>0.4919258522675287</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>555</v>
@@ -6069,19 +6069,19 @@
         <v>448748</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>418672</v>
+        <v>418122</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>482611</v>
+        <v>478937</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4335783100809127</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4045190348124822</v>
+        <v>0.4039879785295604</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4662967517384683</v>
+        <v>0.4627470606378318</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>320113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>293797</v>
+        <v>292729</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>343411</v>
+        <v>343931</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5839724347945635</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5359653847635885</v>
+        <v>0.5340168355885268</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6264735708474278</v>
+        <v>0.6274230827835127</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>370</v>
@@ -6119,19 +6119,19 @@
         <v>266125</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>246795</v>
+        <v>247341</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284381</v>
+        <v>285446</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5466593915010272</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5069527549154869</v>
+        <v>0.5080741477324712</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5841595427171005</v>
+        <v>0.5863462819874504</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>681</v>
@@ -6140,19 +6140,19 @@
         <v>586239</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>552376</v>
+        <v>556050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>616315</v>
+        <v>616865</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5664216899190875</v>
+        <v>0.5664216899190874</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5337032482615317</v>
+        <v>0.5372529393621681</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5954809651875175</v>
+        <v>0.5960120214704397</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>175940</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>154562</v>
+        <v>153287</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>198094</v>
+        <v>198319</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3648629107601324</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3205294687916571</v>
+        <v>0.3178851932828157</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4108056861726624</v>
+        <v>0.4112720622564357</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>297</v>
@@ -6265,19 +6265,19 @@
         <v>208863</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>190596</v>
+        <v>189558</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>226451</v>
+        <v>225525</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4943669926083119</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4511285672928935</v>
+        <v>0.4486728767638353</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5359961102241014</v>
+        <v>0.5338055043747199</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>492</v>
@@ -6286,19 +6286,19 @@
         <v>384803</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>356683</v>
+        <v>359366</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>413535</v>
+        <v>413373</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4253404595203132</v>
+        <v>0.4253404595203131</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3942584956376791</v>
+        <v>0.3972243620213965</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4570989775903905</v>
+        <v>0.4569205132208315</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>306268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>284114</v>
+        <v>283889</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>327646</v>
+        <v>328921</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6351370892398674</v>
+        <v>0.6351370892398677</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5891943138273376</v>
+        <v>0.5887279377435642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6794705312083428</v>
+        <v>0.6821148067171836</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>292</v>
@@ -6336,19 +6336,19 @@
         <v>213623</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>196035</v>
+        <v>196961</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>231890</v>
+        <v>232928</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5056330073916881</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4640038897758984</v>
+        <v>0.4661944956252802</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5488714327071059</v>
+        <v>0.5513271232361646</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>577</v>
@@ -6357,19 +6357,19 @@
         <v>519891</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>491159</v>
+        <v>491321</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>548011</v>
+        <v>545328</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5746595404796868</v>
+        <v>0.5746595404796867</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5429010224096096</v>
+        <v>0.5430794867791682</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.605741504362321</v>
+        <v>0.6027756379786035</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>210048</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>189406</v>
+        <v>189036</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>232060</v>
+        <v>231077</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4481813503112512</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4041358193771245</v>
+        <v>0.4033464335553165</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4951484266836255</v>
+        <v>0.4930499702268339</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>157</v>
@@ -6482,19 +6482,19 @@
         <v>101047</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89352</v>
+        <v>89124</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>112138</v>
+        <v>112512</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5419540340063327</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4792278370959172</v>
+        <v>0.4780056946901122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6014388640020323</v>
+        <v>0.6034462883933023</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>388</v>
@@ -6503,19 +6503,19 @@
         <v>311096</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>287439</v>
+        <v>284537</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>336295</v>
+        <v>334943</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4748694812909127</v>
+        <v>0.4748694812909128</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4387591456408663</v>
+        <v>0.43432931220929</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5133349994312431</v>
+        <v>0.511270732522436</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>258620</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>236608</v>
+        <v>237591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>279262</v>
+        <v>279632</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5518186496887488</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5048515733163745</v>
+        <v>0.5069500297731659</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5958641806228755</v>
+        <v>0.5966535664446829</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>130</v>
@@ -6553,19 +6553,19 @@
         <v>85402</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74311</v>
+        <v>73937</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>97097</v>
+        <v>97325</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4580459659936674</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3985611359979678</v>
+        <v>0.3965537116066978</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5207721629040829</v>
+        <v>0.5219943053098879</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>383</v>
@@ -6574,19 +6574,19 @@
         <v>344022</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>318823</v>
+        <v>320175</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>367679</v>
+        <v>370581</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5251305187090872</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.486665000568757</v>
+        <v>0.4887292674775641</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5612408543591338</v>
+        <v>0.5656706877907106</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>487706</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>448942</v>
+        <v>453936</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>521993</v>
+        <v>523721</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4330234102436393</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3986060747081988</v>
+        <v>0.4030399425956693</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4634667228296708</v>
+        <v>0.465000492734171</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>645</v>
@@ -6699,19 +6699,19 @@
         <v>424846</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>398138</v>
+        <v>400412</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>452292</v>
+        <v>447987</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4946559331303257</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4635593372002012</v>
+        <v>0.466207932028542</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5266127677252445</v>
+        <v>0.5216003752998006</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1156</v>
@@ -6720,19 +6720,19 @@
         <v>912551</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>865635</v>
+        <v>863463</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>954690</v>
+        <v>951441</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4596885911572767</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4360551358202387</v>
+        <v>0.4349609502001525</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.480915766826706</v>
+        <v>0.4792789650272949</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>638574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>604287</v>
+        <v>602559</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>677338</v>
+        <v>672344</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5669765897563608</v>
+        <v>0.5669765897563607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5365332771703294</v>
+        <v>0.5349995072658288</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6013939252918012</v>
+        <v>0.5969600574043307</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>580</v>
@@ -6770,19 +6770,19 @@
         <v>434025</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>406579</v>
+        <v>410884</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>460733</v>
+        <v>458459</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5053440668696744</v>
+        <v>0.5053440668696743</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4733872322747557</v>
+        <v>0.4783996247001994</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5364406627997992</v>
+        <v>0.5337920679714582</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1181</v>
@@ -6791,19 +6791,19 @@
         <v>1072600</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1030461</v>
+        <v>1033710</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1119516</v>
+        <v>1121688</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5403114088427233</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5190842331732939</v>
+        <v>0.5207210349727053</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5639448641797613</v>
+        <v>0.5650390497998474</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>255103</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>228842</v>
+        <v>228645</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>281777</v>
+        <v>280265</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4531665040291155</v>
+        <v>0.4531665040291156</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.406516053307762</v>
+        <v>0.4061657246741456</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5005491694208528</v>
+        <v>0.4978641962174145</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>730</v>
@@ -6916,19 +6916,19 @@
         <v>453873</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>429310</v>
+        <v>425955</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>476940</v>
+        <v>476617</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5495121520369979</v>
+        <v>0.549512152036998</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5197723186538873</v>
+        <v>0.5157112023547322</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5774387595666411</v>
+        <v>0.5770483458507508</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>991</v>
@@ -6937,19 +6937,19 @@
         <v>708977</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>673808</v>
+        <v>675546</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>746764</v>
+        <v>743671</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5104620695675489</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4851406591314062</v>
+        <v>0.4863922154573191</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5376688024269757</v>
+        <v>0.5354422745864336</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>307832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>281158</v>
+        <v>282670</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>334093</v>
+        <v>334290</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5468334959708844</v>
+        <v>0.5468334959708845</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4994508305791475</v>
+        <v>0.5021358037825858</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.593483946692238</v>
+        <v>0.5938342753258544</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>552</v>
@@ -6987,19 +6987,19 @@
         <v>372084</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>349017</v>
+        <v>349340</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>396647</v>
+        <v>400002</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4504878479630021</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4225612404333588</v>
+        <v>0.4229516541492492</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4802276813461128</v>
+        <v>0.4842887976452678</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>834</v>
@@ -7008,19 +7008,19 @@
         <v>679915</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>642128</v>
+        <v>645221</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>715084</v>
+        <v>713346</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4895379304324511</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4623311975730244</v>
+        <v>0.4645577254135663</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5148593408685939</v>
+        <v>0.5136077845426806</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>68526</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48344</v>
+        <v>49191</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>90998</v>
+        <v>93007</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2888629891855733</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2037864094140174</v>
+        <v>0.2073589718419979</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3835905538896063</v>
+        <v>0.3920585160687368</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>618</v>
@@ -7133,19 +7133,19 @@
         <v>421802</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>391192</v>
+        <v>393360</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>448331</v>
+        <v>450465</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5050412809613815</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4683898244968668</v>
+        <v>0.4709864218915293</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5368044849907798</v>
+        <v>0.5393600994007197</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>658</v>
@@ -7154,19 +7154,19 @@
         <v>490329</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>455472</v>
+        <v>453225</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>528396</v>
+        <v>526726</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4572205766125982</v>
+        <v>0.4572205766125983</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.424717060052369</v>
+        <v>0.422621768844743</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4927169148012462</v>
+        <v>0.4911597450429072</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>168702</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>146230</v>
+        <v>144221</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>188884</v>
+        <v>188037</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7111370108144267</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6164094461103936</v>
+        <v>0.6079414839312631</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7962135905859825</v>
+        <v>0.792641028158002</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>526</v>
@@ -7204,19 +7204,19 @@
         <v>413382</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>386853</v>
+        <v>384719</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>443992</v>
+        <v>441824</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4949587190386185</v>
+        <v>0.4949587190386187</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4631955150092201</v>
+        <v>0.4606399005992802</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5316101755031329</v>
+        <v>0.5290135781084707</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>598</v>
@@ -7225,19 +7225,19 @@
         <v>582083</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>544016</v>
+        <v>545686</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>616940</v>
+        <v>619187</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5427794233874018</v>
+        <v>0.5427794233874019</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5072830851987538</v>
+        <v>0.5088402549570927</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5752829399476309</v>
+        <v>0.577378231155257</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1425375</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1362744</v>
+        <v>1363533</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1484360</v>
+        <v>1491956</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4161091286968066</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3978253581553535</v>
+        <v>0.3980554470946984</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.433328444423611</v>
+        <v>0.4355459723354166</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2761</v>
@@ -7350,19 +7350,19 @@
         <v>1831128</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1775608</v>
+        <v>1778109</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1886579</v>
+        <v>1885331</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.506428253242301</v>
+        <v>0.5064282532423012</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.491073426711494</v>
+        <v>0.4917651536908778</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5217641790249981</v>
+        <v>0.5214189686140678</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4240</v>
@@ -7371,19 +7371,19 @@
         <v>3256503</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3170129</v>
+        <v>3172393</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3338781</v>
+        <v>3349588</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4624890987230642</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4502223231477245</v>
+        <v>0.4505438541977345</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4741743353756387</v>
+        <v>0.4757090454097685</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2000109</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1941124</v>
+        <v>1933528</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2062740</v>
+        <v>2061951</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5838908713031934</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5666715555763892</v>
+        <v>0.5644540276645836</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6021746418446468</v>
+        <v>0.6019445529053016</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2450</v>
@@ -7421,19 +7421,19 @@
         <v>1784641</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1729190</v>
+        <v>1730438</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1840161</v>
+        <v>1837660</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4935717467576989</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4782358209750021</v>
+        <v>0.4785810313859323</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.508926573288506</v>
+        <v>0.5082348463091223</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4254</v>
@@ -7442,19 +7442,19 @@
         <v>3784750</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3702472</v>
+        <v>3691665</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3871124</v>
+        <v>3868860</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5375109012769358</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5258256646243612</v>
+        <v>0.5242909545902315</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5497776768522753</v>
+        <v>0.5494561458022655</v>
       </c>
     </row>
     <row r="24">
